--- a/biology/Botanique/Œillet_du_granite/Œillet_du_granite.xlsx
+++ b/biology/Botanique/Œillet_du_granite/Œillet_du_granite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_du_granite</t>
+          <t>Œillet_du_granite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus graniticus
-L'Œillet du granite (Dianthus graniticus) est une espèce de plante herbacée vivace, de la famille des Caryophyllaceae. C'est un œillet endémique du Massif central[1].
+L'Œillet du granite (Dianthus graniticus) est une espèce de plante herbacée vivace, de la famille des Caryophyllaceae. C'est un œillet endémique du Massif central.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_du_granite</t>
+          <t>Œillet_du_granite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Œillet du granite est une plante vivace, glabre, gazonnante à tige grêle de 10 à 40 cm. Les feuilles sont linéaires, glabres et lisses. Les fleurs sont rouges, assez grandes et groupées de 1 à 5 au sommet des tiges.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_du_granite</t>
+          <t>Œillet_du_granite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est endémique du Massif central et pousse sur substrat granitique en position chaude, en particulier dans les Cévennes et le Vivarais où elle peut atteindre des altitudes élevées (1 500 m sur le versant sud du mont Aigoual). Ailleurs dans le Massif central, elle est beaucoup plus rare et cantonnée à des altitudes basses, en position chaude, dans certaines gorges granitiques (vallées de la Truyère et du Haut-Allier, notamment).
 </t>
